--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB8BCED-453A-48E2-9B54-641DE2B66F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2267E6DD-3E90-4CD0-ADCE-B2A5C698AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>url</t>
   </si>
@@ -52,7 +52,7 @@
     <t>http://192.168.10.199/BankUltimusSPARK</t>
   </si>
   <si>
-    <t>shafique1</t>
+    <t>shafique2</t>
   </si>
   <si>
     <t>HomePageUrl</t>
@@ -109,6 +109,63 @@
     <t>BirthRegIssDate</t>
   </si>
   <si>
+    <t>PlaceOfBirth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>IntroducerType</t>
+  </si>
+  <si>
+    <t>AddressType</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>LandPhone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>CityTownArea</t>
+  </si>
+  <si>
+    <t>ZIP_PostalCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Division_State</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>FName</t>
+  </si>
+  <si>
+    <t>MName</t>
+  </si>
+  <si>
+    <t>CustConcentration</t>
+  </si>
+  <si>
+    <t>KYC_Prof</t>
+  </si>
+  <si>
+    <t>KYC_Open_Nature</t>
+  </si>
+  <si>
     <t>Md</t>
   </si>
   <si>
@@ -127,6 +184,9 @@
     <t>1238529051753</t>
   </si>
   <si>
+    <t>7890103564</t>
+  </si>
+  <si>
     <t>B00075189</t>
   </si>
   <si>
@@ -149,6 +209,48 @@
   </si>
   <si>
     <t>11/10/1993</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Service Holder in IT Sector</t>
+  </si>
+  <si>
+    <t>NID Verified</t>
+  </si>
+  <si>
+    <t>Permanent Address</t>
+  </si>
+  <si>
+    <t>College Road Area</t>
+  </si>
+  <si>
+    <t>4566978213</t>
+  </si>
+  <si>
+    <t>01811111112</t>
+  </si>
+  <si>
+    <t>Chashara</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>NARAYANGANJ</t>
+  </si>
+  <si>
+    <t>Rashidul Islam</t>
+  </si>
+  <si>
+    <t>Jahan Ara</t>
+  </si>
+  <si>
+    <t>Non-Govt/Private Service Holder</t>
+  </si>
+  <si>
+    <t>Self/Walk-In</t>
   </si>
 </sst>
 </file>
@@ -211,8 +313,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,7 +649,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
@@ -572,124 +674,256 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="17.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="3" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="3"/>
+    <col min="32" max="32" width="28.85546875" style="3" customWidth="1"/>
+    <col min="33" max="33" width="24.5703125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="18.7109375" style="3" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:34">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4">
-        <v>7890103564</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>36</v>
+    <row r="2" spans="1:34">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2267E6DD-3E90-4CD0-ADCE-B2A5C698AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13575F43-C658-4D99-9275-ADF198459543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>url</t>
   </si>
@@ -52,6 +53,9 @@
     <t>http://192.168.10.199/BankUltimusSPARK</t>
   </si>
   <si>
+    <t>shafique1</t>
+  </si>
+  <si>
     <t>shafique2</t>
   </si>
   <si>
@@ -169,25 +173,25 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Rakibul</t>
-  </si>
-  <si>
-    <t>Islam</t>
-  </si>
-  <si>
-    <t>Bhuiyan</t>
+    <t>Shafiq</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
   </si>
   <si>
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>1238529051753</t>
-  </si>
-  <si>
-    <t>7890103564</t>
-  </si>
-  <si>
-    <t>B00075189</t>
+    <t>9595830009011</t>
+  </si>
+  <si>
+    <t>9258504721</t>
+  </si>
+  <si>
+    <t>B00178589</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -241,10 +245,10 @@
     <t>NARAYANGANJ</t>
   </si>
   <si>
-    <t>Rashidul Islam</t>
-  </si>
-  <si>
-    <t>Jahan Ara</t>
+    <t>Khan Mahbub</t>
+  </si>
+  <si>
+    <t>Rahima Begum</t>
   </si>
   <si>
     <t>Non-Govt/Private Service Holder</t>
@@ -596,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,6 +634,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -637,10 +652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB203C0-CA1F-4DE4-9DFD-626961E733A7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,23 +665,44 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1501</v>
       </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C7C8413D-0C99-49A5-A4CA-383E285C72AE}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C828D6BA-5C23-4722-A8B9-A9FA71A226F6}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{09187A34-F6AF-4A1C-BBD7-56AAE252EC9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -676,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -711,7 +747,8 @@
     <col min="27" max="27" width="18.28515625" style="3" customWidth="1"/>
     <col min="28" max="28" width="17.140625" style="3" customWidth="1"/>
     <col min="29" max="29" width="16.5703125" style="3" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="3"/>
+    <col min="30" max="30" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.85546875" style="3" customWidth="1"/>
     <col min="33" max="33" width="24.5703125" style="3" customWidth="1"/>
     <col min="34" max="34" width="18.7109375" style="3" customWidth="1"/>
@@ -720,213 +757,225 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="AH2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD0866-9044-4C91-B9CD-070AE2338B25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28922"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13575F43-C658-4D99-9275-ADF198459543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6037F34C-BFBC-47CB-AC93-722DCC9C1F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,10 +173,10 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Shafiq</t>
-  </si>
-  <si>
-    <t>A.</t>
+    <t>Akmal</t>
+  </si>
+  <si>
+    <t>M.</t>
   </si>
   <si>
     <t>Ahmed</t>
@@ -188,7 +188,7 @@
     <t>9595830009011</t>
   </si>
   <si>
-    <t>9258504721</t>
+    <t>9201104721</t>
   </si>
   <si>
     <t>B00178589</t>
@@ -203,7 +203,7 @@
     <t>BANGLADESH</t>
   </si>
   <si>
-    <t>08/06/1992</t>
+    <t>11/02/1992</t>
   </si>
   <si>
     <t>DHAKA</t>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="AD11" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28926"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6037F34C-BFBC-47CB-AC93-722DCC9C1F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C979AA2-28C6-440A-B626-4E4998C9AB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>url</t>
   </si>
@@ -50,13 +50,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>http://192.168.10.199/BankUltimusSPARK</t>
-  </si>
-  <si>
-    <t>shafique1</t>
-  </si>
-  <si>
-    <t>shafique2</t>
+    <t>http://192.168.20.127/UltimusSSO/src/UltimusSSOAPP/UFS.Web/</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
   </si>
   <si>
     <t>HomePageUrl</t>
@@ -65,7 +65,7 @@
     <t>FastPath</t>
   </si>
   <si>
-    <t>http://192.168.10.199/BankUltimus/HomePageUI.aspx</t>
+    <t>http://192.168.20.127/BankUltimus/src/BankUltimus.UI/HomePageUI.aspx</t>
   </si>
   <si>
     <t>Title</t>
@@ -173,19 +173,19 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Akmal</t>
+    <t>Ajmal</t>
   </si>
   <si>
     <t>M.</t>
   </si>
   <si>
-    <t>Ahmed</t>
+    <t>Huda</t>
   </si>
   <si>
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9595830009011</t>
+    <t>9595831119011</t>
   </si>
   <si>
     <t>9201104721</t>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,12 +274,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -309,14 +303,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -600,15 +591,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -645,7 +636,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{7FC561F1-C075-40A1-A4D8-B1EDDDEBDE2A}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{8634A844-3D70-41F5-9BBB-68B12266DE7D}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{D772CC76-4D4E-4E37-8883-5BD0E6A7B1C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -654,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB203C0-CA1F-4DE4-9DFD-626961E733A7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +668,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
@@ -672,7 +676,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -680,7 +684,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -688,7 +692,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -696,13 +700,12 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C7C8413D-0C99-49A5-A4CA-383E285C72AE}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{C828D6BA-5C23-4722-A8B9-A9FA71A226F6}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{09187A34-F6AF-4A1C-BBD7-56AAE252EC9E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D295E10B-4FAA-4103-B808-4A83EA521BDA}"/>
+    <hyperlink ref="A3:A4" r:id="rId2" display="http://192.168.20.127/BankUltimus/src/BankUltimus.UI/HomePageUI.aspx" xr:uid="{AA80FA05-D0E9-4852-A368-068671D2ECF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -712,254 +715,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD11" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="17.140625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.85546875" style="3" customWidth="1"/>
-    <col min="33" max="33" width="24.5703125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="18.7109375" style="3" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.85546875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="24.5703125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="18.7109375" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>71</v>
       </c>
     </row>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C979AA2-28C6-440A-B626-4E4998C9AB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10354D5-200C-45D3-85F3-22FC350AF82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>url</t>
   </si>
@@ -122,6 +122,12 @@
     <t>Occupation</t>
   </si>
   <si>
+    <t>MonthlyIncome</t>
+  </si>
+  <si>
+    <t>ResidenceLoc</t>
+  </si>
+  <si>
     <t>IntroducerType</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
     <t>PS</t>
   </si>
   <si>
+    <t>PO</t>
+  </si>
+  <si>
     <t>FName</t>
   </si>
   <si>
@@ -218,7 +227,13 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Service Holder in IT Sector</t>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>Resident</t>
   </si>
   <si>
     <t>NID Verified</t>
@@ -236,13 +251,16 @@
     <t>01811111112</t>
   </si>
   <si>
-    <t>Chashara</t>
+    <t>Dhamrai</t>
   </si>
   <si>
     <t>1230</t>
   </si>
   <si>
-    <t>NARAYANGANJ</t>
+    <t>DHAMRAI</t>
+  </si>
+  <si>
+    <t>Dhaka Main PO</t>
   </si>
   <si>
     <t>Khan Mahbub</t>
@@ -251,10 +269,13 @@
     <t>Rahima Begum</t>
   </si>
   <si>
-    <t>Non-Govt/Private Service Holder</t>
-  </si>
-  <si>
-    <t>Self/Walk-In</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Service in Information &amp; Technology Sector</t>
+  </si>
+  <si>
+    <t>Walk-in/Unsolicited</t>
   </si>
 </sst>
 </file>
@@ -658,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB203C0-CA1F-4DE4-9DFD-626961E733A7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -713,10 +734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -739,26 +760,27 @@
     <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="17.140625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.85546875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="24.5703125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.7109375" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="2"/>
+    <col min="19" max="20" width="24.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="16.5703125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="17.140625" style="2" customWidth="1"/>
+    <col min="31" max="32" width="16.5703125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.85546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="44" style="2" customWidth="1"/>
+    <col min="37" max="37" width="18.7109375" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -861,109 +883,127 @@
       <c r="AH1" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="AI1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="AD2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10354D5-200C-45D3-85F3-22FC350AF82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0C7AC0-60D0-4273-B97D-44CE042B3E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
     <t>Ajmal</t>
   </si>
   <si>
-    <t>M.</t>
+    <t>H.</t>
   </si>
   <si>
     <t>Huda</t>
@@ -194,10 +194,10 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9595831119011</t>
-  </si>
-  <si>
-    <t>9201104721</t>
+    <t>9595831229011</t>
+  </si>
+  <si>
+    <t>9201854721</t>
   </si>
   <si>
     <t>B00178589</t>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0C7AC0-60D0-4273-B97D-44CE042B3E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19FF8ECC-2203-49E5-9619-36B4F4C5AA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Ajmal</t>
+    <t>Ajmat</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9595831229011</t>
-  </si>
-  <si>
-    <t>9201854721</t>
-  </si>
-  <si>
-    <t>B00178589</t>
+    <t>9505831229011</t>
+  </si>
+  <si>
+    <t>9201853721</t>
+  </si>
+  <si>
+    <t>B00178580</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -737,7 +737,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19FF8ECC-2203-49E5-9619-36B4F4C5AA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF6D8EC-5E8B-4F7F-9099-85EA051D44CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Ajmat</t>
+    <t>Rahaman</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9505831229011</t>
-  </si>
-  <si>
-    <t>9201853721</t>
-  </si>
-  <si>
-    <t>B00178580</t>
+    <t>9505831229018</t>
+  </si>
+  <si>
+    <t>9201883721</t>
+  </si>
+  <si>
+    <t>A00178480</t>
   </si>
   <si>
     <t>21/01/2020</t>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF6D8EC-5E8B-4F7F-9099-85EA051D44CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC1C519-64F1-455E-B350-F5E08C2E3C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Rahaman</t>
+    <t>Arif</t>
   </si>
   <si>
     <t>H.</t>
@@ -197,10 +197,10 @@
     <t>9505831229018</t>
   </si>
   <si>
-    <t>9201883721</t>
-  </si>
-  <si>
-    <t>A00178480</t>
+    <t>9201983721</t>
+  </si>
+  <si>
+    <t>A00278480</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -737,7 +737,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC1C519-64F1-455E-B350-F5E08C2E3C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65902262-9505-4024-AA02-16A793E40AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Arif</t>
+    <t>Ahad</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9505831229018</t>
-  </si>
-  <si>
-    <t>9201983721</t>
-  </si>
-  <si>
-    <t>A00278480</t>
+    <t>9516831229018</t>
+  </si>
+  <si>
+    <t>9201973821</t>
+  </si>
+  <si>
+    <t>B00279480</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -737,7 +737,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65902262-9505-4024-AA02-16A793E40AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A28A3EB-BB65-4D24-8182-505997E8E12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Ahad</t>
+    <t>Sayem</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9516831229018</t>
-  </si>
-  <si>
-    <t>9201973821</t>
-  </si>
-  <si>
-    <t>B00279480</t>
+    <t>9516931229018</t>
+  </si>
+  <si>
+    <t>9201963821</t>
+  </si>
+  <si>
+    <t>B00219480</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -737,7 +737,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A28A3EB-BB65-4D24-8182-505997E8E12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F9B77F-98C7-47F5-ACA8-DC1F1F505AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Sayem</t>
+    <t>Rony</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9516931229018</t>
-  </si>
-  <si>
-    <t>9201963821</t>
-  </si>
-  <si>
-    <t>B00219480</t>
+    <t>9514931229018</t>
+  </si>
+  <si>
+    <t>9200963821</t>
+  </si>
+  <si>
+    <t>B00229480</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -737,7 +737,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F9B77F-98C7-47F5-ACA8-DC1F1F505AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEAA683A-A64A-4E36-BE2F-9CA285E1FF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Rony</t>
+    <t>Anthony</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9514931229018</t>
-  </si>
-  <si>
-    <t>9200963821</t>
-  </si>
-  <si>
-    <t>B00229480</t>
+    <t>9414931229018</t>
+  </si>
+  <si>
+    <t>9200963827</t>
+  </si>
+  <si>
+    <t>B00229880</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -737,7 +737,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEAA683A-A64A-4E36-BE2F-9CA285E1FF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AABD762-8D65-4247-8856-9221A074A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
     <t>http://192.168.20.127/UltimusSSO/src/UltimusSSOAPP/UFS.Web/</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
+    <t>Amit1</t>
+  </si>
+  <si>
+    <t>anthony</t>
   </si>
   <si>
     <t>HomePageUrl</t>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEAA683A-A64A-4E36-BE2F-9CA285E1FF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22CF5CD2-CBA0-4AD5-83B3-C9E51AF82ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="CIF_Org(1503)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>url</t>
   </si>
@@ -59,6 +59,12 @@
     <t>T2</t>
   </si>
   <si>
+    <t>Anamika</t>
+  </si>
+  <si>
+    <t>AnamikaM</t>
+  </si>
+  <si>
     <t>HomePageUrl</t>
   </si>
   <si>
@@ -182,7 +188,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Anthony</t>
+    <t>Ajmal</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +200,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9414931229018</t>
-  </si>
-  <si>
-    <t>9200963827</t>
-  </si>
-  <si>
-    <t>B00229880</t>
+    <t>9595831229011</t>
+  </si>
+  <si>
+    <t>9201854721</t>
+  </si>
+  <si>
+    <t>B00178589</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,11 +671,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{7FC561F1-C075-40A1-A4D8-B1EDDDEBDE2A}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{8634A844-3D70-41F5-9BBB-68B12266DE7D}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{D772CC76-4D4E-4E37-8883-5BD0E6A7B1C2}"/>
+    <hyperlink ref="A5:A6" r:id="rId4" xr:uid="{2FB2E7FD-AED7-413D-A5A5-1D0D80AA73B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -680,25 +709,25 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1501</v>
@@ -706,7 +735,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>8002</v>
@@ -714,19 +743,25 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1515</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1503</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D295E10B-4FAA-4103-B808-4A83EA521BDA}"/>
     <hyperlink ref="A3:A4" r:id="rId2" display="http://192.168.20.127/BankUltimus/src/BankUltimus.UI/HomePageUI.aspx" xr:uid="{AA80FA05-D0E9-4852-A368-068671D2ECF7}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{B74C22C8-6D01-4146-A2DF-D4BD626871BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -736,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,228 +817,228 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AD2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AABD762-8D65-4247-8856-9221A074A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28EDA627-3F72-4756-9A0F-08D1F904AA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Anthony</t>
+    <t>Adib</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9414931229018</t>
-  </si>
-  <si>
-    <t>9200963827</t>
-  </si>
-  <si>
-    <t>B00229880</t>
+    <t>9114931229018</t>
+  </si>
+  <si>
+    <t>8200963827</t>
+  </si>
+  <si>
+    <t>B00229780</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -663,6 +663,9 @@
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28EDA627-3F72-4756-9A0F-08D1F904AA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC803E3D-AA1A-4786-A05D-363FC16F60BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Adib</t>
+    <t>Nahid</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9114931229018</t>
-  </si>
-  <si>
-    <t>8200963827</t>
-  </si>
-  <si>
-    <t>B00229780</t>
+    <t>9114935229018</t>
+  </si>
+  <si>
+    <t>8200943827</t>
+  </si>
+  <si>
+    <t>C00229780</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -740,7 +740,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1018,7 +1018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD0866-9044-4C91-B9CD-070AE2338B25}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC803E3D-AA1A-4786-A05D-363FC16F60BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81103814-19C9-4BD6-943C-62DD545CD5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Nahid</t>
+    <t>Ayan</t>
   </si>
   <si>
     <t>H.</t>
@@ -194,13 +194,13 @@
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>9114935229018</t>
-  </si>
-  <si>
-    <t>8200943827</t>
-  </si>
-  <si>
-    <t>C00229780</t>
+    <t>5114935229118</t>
+  </si>
+  <si>
+    <t>8200983827</t>
+  </si>
+  <si>
+    <t>D00229780</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -740,7 +740,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22CF5CD2-CBA0-4AD5-83B3-C9E51AF82ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{886894B3-DD68-460C-869F-641969CB0682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="CIF_Org(1503)" sheetId="4" r:id="rId4"/>
+    <sheet name="NftAuth" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>url</t>
   </si>
@@ -282,13 +283,148 @@
   </si>
   <si>
     <t>Walk-in/Unsolicited</t>
+  </si>
+  <si>
+    <t>CustomerCatagory</t>
+  </si>
+  <si>
+    <t>OrgTradeName</t>
+  </si>
+  <si>
+    <t>OrgTypeId</t>
+  </si>
+  <si>
+    <t>RegistrationNo</t>
+  </si>
+  <si>
+    <t>RegDate</t>
+  </si>
+  <si>
+    <t>NetWorth</t>
+  </si>
+  <si>
+    <t>AnnualTurnover</t>
+  </si>
+  <si>
+    <t>IncorporationNo</t>
+  </si>
+  <si>
+    <t>DateOfIncorporation</t>
+  </si>
+  <si>
+    <t>OwnerCustId</t>
+  </si>
+  <si>
+    <t>OrgType</t>
+  </si>
+  <si>
+    <t>RoleCode</t>
+  </si>
+  <si>
+    <t>OwnersShare</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>PostOffice</t>
+  </si>
+  <si>
+    <t>ContPersonName</t>
+  </si>
+  <si>
+    <t>NatureOfOwnershipCTR</t>
+  </si>
+  <si>
+    <t>NatureOfOwnershipCIB</t>
+  </si>
+  <si>
+    <t>NatureOfBusiness</t>
+  </si>
+  <si>
+    <t>SourceVerified</t>
+  </si>
+  <si>
+    <t>KYC_Profession</t>
+  </si>
+  <si>
+    <t>Organization Private Sector</t>
+  </si>
+  <si>
+    <t>Sany Traders</t>
+  </si>
+  <si>
+    <t>Medium Enterprise - Service Concern (21)</t>
+  </si>
+  <si>
+    <t>17/08/2023</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>Sole Proprietorship</t>
+  </si>
+  <si>
+    <t>Proprietor</t>
+  </si>
+  <si>
+    <t>Business Address</t>
+  </si>
+  <si>
+    <t>Wari</t>
+  </si>
+  <si>
+    <t>DEMRA</t>
+  </si>
+  <si>
+    <t>Wari TSO</t>
+  </si>
+  <si>
+    <t>01486262876</t>
+  </si>
+  <si>
+    <t>Wari Ahmed</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Proprietorship Account</t>
+  </si>
+  <si>
+    <t>Proprietorship</t>
+  </si>
+  <si>
+    <t>IT based business</t>
+  </si>
+  <si>
+    <t>Known Person</t>
+  </si>
+  <si>
+    <t>Corporate Customer</t>
+  </si>
+  <si>
+    <t>Direct Sales Agent</t>
+  </si>
+  <si>
+    <t>AuthorizationFunction</t>
+  </si>
+  <si>
+    <t>1501 - Customers Profile [Individual]</t>
+  </si>
+  <si>
+    <t>1502 - Customers Profile [organization]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +444,24 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -332,10 +486,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -620,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,7 +879,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,7 +888,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -754,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
   </sheetData>
@@ -771,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,12 +1218,255 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD0866-9044-4C91-B9CD-070AE2338B25}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3"/>
+    <col min="3" max="3" width="38.7109375" style="3" customWidth="1"/>
+    <col min="4" max="22" width="20.85546875" style="3"/>
+    <col min="23" max="23" width="20.85546875" style="4"/>
+    <col min="24" max="26" width="20.85546875" style="3"/>
+    <col min="27" max="27" width="25.28515625" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="20.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="17.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4566237237</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>756535986</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3">
+        <v>876406</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="3">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1010</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" s="3">
+        <v>8801623265</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C944D4D-876B-44F3-8AC5-F876A4E24393}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cypress/fixtures/loginData.xlsx
+++ b/cypress/fixtures/loginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29019"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bu.shafique\Documents\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81103814-19C9-4BD6-943C-62DD545CD5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66DFBA67-EC65-4130-BD90-FB7AAD28D842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>url</t>
   </si>
@@ -53,7 +53,10 @@
     <t>http://192.168.20.127/UltimusSSO/src/UltimusSSOAPP/UFS.Web/</t>
   </si>
   <si>
-    <t>Amit1</t>
+    <t>avi1</t>
+  </si>
+  <si>
+    <t>avi2</t>
   </si>
   <si>
     <t>anthony</t>
@@ -182,25 +185,25 @@
     <t>Md</t>
   </si>
   <si>
-    <t>Ayan</t>
+    <t>Raihan</t>
   </si>
   <si>
     <t>H.</t>
   </si>
   <si>
-    <t>Huda</t>
+    <t>Rahaman</t>
   </si>
   <si>
     <t>BANGLADESHI</t>
   </si>
   <si>
-    <t>5114935229118</t>
-  </si>
-  <si>
-    <t>8200983827</t>
-  </si>
-  <si>
-    <t>D00229780</t>
+    <t>5123935209118</t>
+  </si>
+  <si>
+    <t>9201984927</t>
+  </si>
+  <si>
+    <t>B00229780</t>
   </si>
   <si>
     <t>21/01/2020</t>
@@ -218,7 +221,7 @@
     <t>DHAKA</t>
   </si>
   <si>
-    <t>78513355646</t>
+    <t>78613355646</t>
   </si>
   <si>
     <t>11/10/1993</t>
@@ -615,7 +618,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -693,15 +696,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1501</v>
@@ -709,7 +712,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>8002</v>
@@ -717,7 +720,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1515</v>
@@ -740,7 +743,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -785,228 +788,228 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AD2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
